--- a/Assets/_Excel/option.xlsx
+++ b/Assets/_Excel/option.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\UnityDemo\BattleFlagGame\Assets\_Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity\BattleFlagGameStudy\Assets\_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2669D1B6-20CD-4F94-B88C-826ACEBD325E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C22A7F-9500-4BC1-B725-B9FC85ACBA94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1125" yWindow="1950" windowWidth="27675" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>Id</t>
   </si>
@@ -78,6 +78,14 @@
       </rPr>
       <t>nIdleEvent</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拾取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OnPickUpItemEvent</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -96,6 +104,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -440,18 +449,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="26.21875" customWidth="1"/>
+    <col min="3" max="3" width="26.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -462,7 +471,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -473,7 +482,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>1001</v>
       </c>
@@ -484,7 +493,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>1002</v>
       </c>
@@ -495,7 +504,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>1005</v>
       </c>
@@ -506,7 +515,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>1007</v>
       </c>
@@ -515,6 +524,17 @@
       </c>
       <c r="C6" s="2" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="1">
+        <v>1009</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/_Excel/option.xlsx
+++ b/Assets/_Excel/option.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity\BattleFlagGameStudy\Assets\_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C22A7F-9500-4BC1-B725-B9FC85ACBA94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{930553AE-3ECA-43AF-B854-5E314F27217C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1950" windowWidth="27675" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2865" windowWidth="27675" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Id</t>
   </si>
@@ -86,6 +86,14 @@
   </si>
   <si>
     <t>OnPickUpItemEvent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交互</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OnInteractEvent</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -137,12 +145,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -449,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -537,6 +548,17 @@
         <v>14</v>
       </c>
     </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="1">
+        <v>1011</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Assets/_Excel/option.xlsx
+++ b/Assets/_Excel/option.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity\BattleFlagGameStudy\Assets\_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{930553AE-3ECA-43AF-B854-5E314F27217C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4009C896-86BF-48DF-9D05-7452F3FD9F50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2865" windowWidth="27675" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1125" yWindow="3120" windowWidth="27675" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>Id</t>
   </si>
@@ -78,14 +78,6 @@
       </rPr>
       <t>nIdleEvent</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拾取</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OnPickUpItemEvent</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -145,15 +137,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -460,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -541,22 +530,11 @@
       <c r="A7" s="1">
         <v>1009</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="1">
-        <v>1011</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
